--- a/Spring_2022/BioChemEng/HW6/HW6_1.xlsx
+++ b/Spring_2022/BioChemEng/HW6/HW6_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\Spring_2022\BioChemEng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehead\school\Spring_2022\BioChemEng\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA244B09-03BA-46F3-BAF2-738534AA007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE2E7D5-76BA-4C21-B351-F37BC1A06340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{076D28A9-5EFD-48F0-BD0F-98B8D33DC886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{076D28A9-5EFD-48F0-BD0F-98B8D33DC886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>t</t>
   </si>
@@ -123,6 +125,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dissolved</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Oxygen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -324,6 +356,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -355,6 +388,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (min)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -417,6 +510,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>DO (mg/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1071,15 +1219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
+      <xdr:colOff>576262</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1404,15 +1552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9024E29-6C08-4511-8F7E-FD5EA2B61EA2}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1442,16 +1590,24 @@
       <c r="C2">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F2">
+        <f>(E$23+D$23)/(C$2-B2)</f>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F3">
+        <f>(E$23+D$23)/(C$2-B3)</f>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1459,11 +1615,15 @@
         <v>2.4</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D20" si="0">(B4-B3)/(A4-A3)</f>
+        <f t="shared" ref="D4:D6" si="0">(B4-B3)/(A4-A3)</f>
         <v>-0.89999999999999991</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F4">
+        <f>(E$23+D$23)/(C$2-B4)</f>
+        <v>-0.1020408163265306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1474,8 +1634,12 @@
         <f t="shared" si="0"/>
         <v>-1.0999999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F5">
+        <f>(E$23+D$23)/(C$2-B5)</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1486,32 +1650,48 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F6">
+        <f>(E$23+D$23)/(C$2-B6)</f>
+        <v>-7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F7">
+        <f>(E$23+D$23)/(C$2-B7)</f>
+        <v>-6.9444444444444448E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F8">
+        <f>(E$23+D$23)/(C$2-B8)</f>
+        <v>-6.8493150684931503E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F9">
+        <f>(E$23+D$23)/(C$2-B9)</f>
+        <v>-6.8493150684931503E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1519,15 +1699,15 @@
         <v>0.3</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E4:E20" si="1">(B10-B9)/(A10-A9)</f>
+        <f t="shared" ref="E10:E19" si="1">(B10-B9)/(A10-A9)</f>
         <v>0.3</v>
       </c>
       <c r="F10">
-        <f>(E10+D$21)/(C$2-B10)</f>
-        <v>-9.9999999999999992E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B10)</f>
+        <v>-7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1539,11 +1719,11 @@
         <v>0.7</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F19" si="2">(E11+D$21)/(C$2-B11)</f>
-        <v>-4.761904761904763E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B11)</f>
+        <v>-7.9365079365079361E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1555,11 +1735,11 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>-7.0175438596491224E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B12)</f>
+        <v>-8.7719298245614044E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1571,11 +1751,11 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>-0.11320754716981134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B13)</f>
+        <v>-9.4339622641509441E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1587,11 +1767,11 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>-0.12244897959183675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B14)</f>
+        <v>-0.1020408163265306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1603,11 +1783,11 @@
         <v>0.30000000000000027</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>-0.15217391304347822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B15)</f>
+        <v>-0.10869565217391305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1619,11 +1799,11 @@
         <v>0.19999999999999973</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>-0.18181818181818185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B16)</f>
+        <v>-0.11363636363636363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1635,11 +1815,11 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>-0.20930232558139533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B17)</f>
+        <v>-0.11627906976744186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1651,11 +1831,11 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>-0.2142857142857143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B18)</f>
+        <v>-0.11904761904761907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1667,32 +1847,41 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>-0.21951219512195122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+        <f>(E$23+D$23)/(C$2-B19)</f>
+        <v>-0.12195121951219513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20">
         <v>3.2</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="D21">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23">
         <f>AVERAGE(D4:D6)</f>
         <v>-1</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <f>AVERAGE(E10:E13)</f>
         <v>0.5</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F2:F19)</f>
+        <v>-9.5985376613754461E-2</v>
       </c>
     </row>
   </sheetData>
